--- a/Base/Teams/Bears/Distributions.xlsx
+++ b/Base/Teams/Bears/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(11.057112506561118, 5.390378587185814, -11.823122527030653, 12.952048070139583)</t>
-  </si>
-  <si>
-    <t>NCT(2.589632993165417, 1.543183340445667, 1.7268638920446118, 4.346410422818078)</t>
-  </si>
-  <si>
-    <t>NCT(2.5117079664456177, 1.4636253529366259, -0.7348404104649885, 2.4588344664433293)</t>
-  </si>
-  <si>
-    <t>MIE(7.119703589732467, 3.936967333281385, -12.254214385390528, 17.47871571266649)</t>
+    <t>EXN(2.4700356603552773, -0.1013161350166013, 1.890546768124959)</t>
+  </si>
+  <si>
+    <t>NCT(2.6568777062030153, 1.59530627445154, 1.365815049779554, 4.250801857631765)</t>
+  </si>
+  <si>
+    <t>NCT(2.5226423274199843, 1.2592767947879548, -0.36605784444340883, 2.637145461244753)</t>
+  </si>
+  <si>
+    <t>MIE(6.8118061426931895, 3.987097137097183, -12.03678734558644, 17.67260118347503)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bears/Distributions.xlsx
+++ b/Base/Teams/Bears/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>EXN(2.4700356603552773, -0.1013161350166013, 1.890546768124959)</t>
-  </si>
-  <si>
-    <t>NCT(2.6568777062030153, 1.59530627445154, 1.365815049779554, 4.250801857631765)</t>
-  </si>
-  <si>
-    <t>NCT(2.5226423274199843, 1.2592767947879548, -0.36605784444340883, 2.637145461244753)</t>
-  </si>
-  <si>
-    <t>MIE(6.8118061426931895, 3.987097137097183, -12.03678734558644, 17.67260118347503)</t>
+    <t>MIE(11.359748798043237, 5.204022976389113, -11.419389052197639, 12.387197169402343)</t>
+  </si>
+  <si>
+    <t>NCT(2.411391756868443, 1.687460250994135, 1.0838414493158748, 4.003545505552404)</t>
+  </si>
+  <si>
+    <t>JSU(-0.846485049793761, 1.0937297549630995, 0.8609297517233687, 2.91409818972001)</t>
+  </si>
+  <si>
+    <t>NCT(3.3850254793990135, 2.448048280435412, -3.3573525994004227, 4.623662666367011)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bears/Distributions.xlsx
+++ b/Base/Teams/Bears/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(11.359748798043237, 5.204022976389113, -11.419389052197639, 12.387197169402343)</t>
-  </si>
-  <si>
-    <t>NCT(2.411391756868443, 1.687460250994135, 1.0838414493158748, 4.003545505552404)</t>
-  </si>
-  <si>
-    <t>JSU(-0.846485049793761, 1.0937297549630995, 0.8609297517233687, 2.91409818972001)</t>
-  </si>
-  <si>
-    <t>NCT(3.3850254793990135, 2.448048280435412, -3.3573525994004227, 4.623662666367011)</t>
+    <t>JSU(-1.2598950220201752, 1.292262076486605, -0.43907293679448023, 3.255274718262501)</t>
+  </si>
+  <si>
+    <t>NCT(3.0328810889463282, 1.9308536059876817, -0.014956529118888472, 4.242887037918159)</t>
+  </si>
+  <si>
+    <t>NCT(2.457039984222694, 1.3653300656295693, -0.4751293190312398, 2.549016853691458)</t>
+  </si>
+  <si>
+    <t>NCT(3.4312261531983417, 2.464215227826882, -3.4956171240054834, 4.597654977153244)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bears/Distributions.xlsx
+++ b/Base/Teams/Bears/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.2598950220201752, 1.292262076486605, -0.43907293679448023, 3.255274718262501)</t>
-  </si>
-  <si>
-    <t>NCT(3.0328810889463282, 1.9308536059876817, -0.014956529118888472, 4.242887037918159)</t>
-  </si>
-  <si>
-    <t>NCT(2.457039984222694, 1.3653300656295693, -0.4751293190312398, 2.549016853691458)</t>
-  </si>
-  <si>
-    <t>NCT(3.4312261531983417, 2.464215227826882, -3.4956171240054834, 4.597654977153244)</t>
+    <t>JSU(-1.2633862938780678, 1.3055995132460398, -0.4116335118654511, 3.2500925253932986)</t>
+  </si>
+  <si>
+    <t>NCT(3.0727906953150157, 1.9534930774721397, -0.012756880561947882, 4.1879476374518525)</t>
+  </si>
+  <si>
+    <t>NCT(2.623695190221915, 1.367946381656541, -0.4800362476305731, 2.5880815160904005)</t>
+  </si>
+  <si>
+    <t>NCT(3.441036129047641, 2.335691427564126, -3.1752759583429517, 4.723169862907151)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Bears/Distributions.xlsx
+++ b/Base/Teams/Bears/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.2633862938780678, 1.3055995132460398, -0.4116335118654511, 3.2500925253932986)</t>
-  </si>
-  <si>
-    <t>NCT(3.0727906953150157, 1.9534930774721397, -0.012756880561947882, 4.1879476374518525)</t>
-  </si>
-  <si>
-    <t>NCT(2.623695190221915, 1.367946381656541, -0.4800362476305731, 2.5880815160904005)</t>
-  </si>
-  <si>
-    <t>NCT(3.441036129047641, 2.335691427564126, -3.1752759583429517, 4.723169862907151)</t>
+    <t>JSU(-1.2745210742677864, 1.3187981934704989, -0.40869963565298656, 3.2399218300920936)</t>
+  </si>
+  <si>
+    <t>NCT(3.1307627292558085, 1.9601991755217627, -0.013226557929430723, 4.1548198732961446)</t>
+  </si>
+  <si>
+    <t>NCT(2.6193011121542167, 1.3276918997431393, -0.4504814284224421, 2.646560748250657)</t>
+  </si>
+  <si>
+    <t>NIG(1.622593757682529, 1.284080671362033, 2.8549548587141733, 6.738428301438214)</t>
   </si>
 </sst>
 </file>
